--- a/ExcelDB.xlsx
+++ b/ExcelDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ArchWay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ArchAutomation\ArchRefac_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="334">
   <si>
     <t>TestCase</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>Alaska</t>
+  </si>
+  <si>
+    <t>NewTest112</t>
   </si>
 </sst>
 </file>
@@ -2585,10 +2588,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2719,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>182</v>
@@ -4687,7 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>

--- a/ExcelDB.xlsx
+++ b/ExcelDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="333">
   <si>
     <t>TestCase</t>
   </si>
@@ -721,12 +721,6 @@
     <t>Virus Exclusion</t>
   </si>
   <si>
-    <t>Communicable Disease as per LMA 5394</t>
-  </si>
-  <si>
-    <t>Coronavirus as per LMA 5391</t>
-  </si>
-  <si>
     <t>Certificate</t>
   </si>
   <si>
@@ -985,12 +979,6 @@
     <t>B Exclusion</t>
   </si>
   <si>
-    <t>ParentCompany1</t>
-  </si>
-  <si>
-    <t>C 6 C 6</t>
-  </si>
-  <si>
     <t>FL Exclusion</t>
   </si>
   <si>
@@ -1009,15 +997,9 @@
     <t>Aker Certificate</t>
   </si>
   <si>
-    <t>Virus S 21.1</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
-    <t>FM Insurance Europe S.A</t>
-  </si>
-  <si>
     <t>Download</t>
   </si>
   <si>
@@ -1045,7 +1027,22 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>NewTest112</t>
+    <t>FinalAshfaq</t>
+  </si>
+  <si>
+    <t>Vikas Shrivasta</t>
+  </si>
+  <si>
+    <t>MERCURY INSURANCE COMPANY</t>
+  </si>
+  <si>
+    <t>ArchWay Insurance</t>
+  </si>
+  <si>
+    <t>LMA5393</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1621,7 @@
         <v>129</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1701,7 +1698,7 @@
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
         <v>135</v>
@@ -1730,7 +1727,7 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J6" t="s">
         <v>137</v>
@@ -2009,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2027,40 +2024,40 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>67</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>88</v>
@@ -2072,28 +2069,28 @@
         <v>91</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB1" s="20" t="s">
         <v>128</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
@@ -2101,10 +2098,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -2113,30 +2110,30 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J2">
         <v>96720</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18" t="s">
         <v>68</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -2154,16 +2151,16 @@
         <v>1000000</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Y2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z2" s="18" t="s">
         <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AB2" s="23">
         <v>3</v>
@@ -2205,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2237,28 +2234,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F2">
         <v>96725</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -2329,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>40</v>
@@ -2381,10 +2378,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P5" t="s">
         <v>160</v>
@@ -2588,10 +2585,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,22 +2716,22 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>32</v>
@@ -2775,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>212</v>
@@ -2798,7 +2795,7 @@
         <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>156</v>
@@ -2807,7 +2804,7 @@
         <v>221</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>32</v>
@@ -2875,13 +2872,13 @@
         <v>184</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>46</v>
@@ -2940,7 +2937,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>156</v>
@@ -2949,7 +2946,7 @@
         <v>221</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>46</v>
@@ -3011,13 +3008,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>36</v>
@@ -3026,7 +3023,7 @@
         <v>220</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>32</v>
@@ -3093,7 +3090,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>156</v>
@@ -3102,7 +3099,7 @@
         <v>221</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>32</v>
@@ -3174,7 +3171,7 @@
         <v>188</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>36</v>
@@ -3183,7 +3180,7 @@
         <v>220</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>46</v>
@@ -3246,7 +3243,7 @@
         <v>189</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>156</v>
@@ -3255,7 +3252,7 @@
         <v>221</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>46</v>
@@ -3321,7 +3318,7 @@
         <v>190</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
@@ -3330,7 +3327,7 @@
         <v>220</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>32</v>
@@ -3397,7 +3394,7 @@
         <v>191</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>156</v>
@@ -3406,7 +3403,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>32</v>
@@ -3576,22 +3573,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3599,19 +3596,19 @@
         <v>205</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>73</v>
@@ -3647,25 +3644,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>302</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3673,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3702,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,10 +3770,10 @@
         <v>224</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,13 +3826,13 @@
         <v>8</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3888,7 +3885,7 @@
         <v>200</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,7 +3938,7 @@
         <v>201</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -4308,7 +4305,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>62</v>
@@ -4326,28 +4323,28 @@
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4411,7 +4408,7 @@
         <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M3" t="s">
         <v>73</v>
@@ -4460,7 +4457,7 @@
         <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4483,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4668,7 +4665,7 @@
         <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4734,7 +4731,7 @@
         <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>104</v>
@@ -4746,13 +4743,13 @@
         <v>106</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>107</v>
@@ -4776,7 +4773,7 @@
         <v>113</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4785,17 +4782,17 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H2">
         <v>9000000</v>
@@ -4816,10 +4813,10 @@
         <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>115</v>
@@ -4840,7 +4837,7 @@
         <v>600</v>
       </c>
       <c r="Z2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -4870,10 +4867,10 @@
         <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>115</v>
@@ -4894,7 +4891,7 @@
         <v>118</v>
       </c>
       <c r="Z3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4903,19 +4900,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H4">
         <v>9000000</v>
@@ -4936,10 +4933,10 @@
         <v>114</v>
       </c>
       <c r="N4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>115</v>
@@ -4963,7 +4960,7 @@
         <v>700</v>
       </c>
       <c r="Z4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4998,10 +4995,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,25 +5054,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5083,10 +5080,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
@@ -5095,7 +5092,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
